--- a/documents/Manual_Test-Case-SauceDemo.xlsx
+++ b/documents/Manual_Test-Case-SauceDemo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmandal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0E9C62-A4C6-4B1B-9715-DA96F3F24581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A516EAC-A4E5-4CB3-8073-84BB25122644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST SCENARIO" sheetId="6" r:id="rId1"/>
@@ -19,14 +19,26 @@
     <sheet name="TC_Sort" sheetId="9" r:id="rId4"/>
     <sheet name="TC_E_To_E" sheetId="10" r:id="rId5"/>
     <sheet name="TC_Modify_E_To_E" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="230">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -370,10 +382,6 @@
     <t>TC_NavLinks_01</t>
   </si>
   <si>
-    <t>1. Locate and click on All Items link	
-2. Observe page transition or update</t>
-  </si>
-  <si>
     <t>User lands on Product description page</t>
   </si>
   <si>
@@ -889,9 +897,6 @@
     <t>User is not able to login getting error message "Epic sadface: Sorry, this user has been locked out"</t>
   </si>
   <si>
-    <t>User is getting one popup with saying Change your password with message " The password that used….etc" after clicked on ok products images are missing in the product page</t>
-  </si>
-  <si>
     <t xml:space="preserve">User is getting one popup with saying Change your password with message " The password that used….etc" </t>
   </si>
   <si>
@@ -995,7 +1000,10 @@
 3. Click on the ok button from appeared popup</t>
   </si>
   <si>
-    <t xml:space="preserve">User is redirected to </t>
+    <t xml:space="preserve">User is redirected to inventory/products page but with a popup coming saying Change your password with message " The password that used….etc" </t>
+  </si>
+  <si>
+    <t>User is getting one popup with saying Change your password with message " The password that used….etc" after clicked on ok button products images are missing in the product page</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1068,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,24 +1224,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1237,18 +1244,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1295,110 +1325,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1417,10 +1432,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1712,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB603F4E-FB98-47B4-ACD4-732E69920FF0}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1721,237 +1732,237 @@
     <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.26953125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
     <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="F9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="2"/>
@@ -1960,10 +1971,10 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="65"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -1971,25 +1982,21 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2010,14 +2017,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13" style="10" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
@@ -2025,7 +2032,7 @@
     <col min="7" max="7" width="35.453125" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.453125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="41.453125" style="19" customWidth="1"/>
     <col min="11" max="11" width="12.36328125" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.81640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.453125" style="1" bestFit="1" customWidth="1"/>
@@ -2034,459 +2041,475 @@
   <sheetData>
     <row r="1" spans="2:13" ht="3.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="G10" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>226</v>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>224</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>226</v>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>224</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K13" s="2"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>224</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="E15" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="54" t="s">
+      <c r="G15" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="2"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="55" t="s">
+      <c r="E16" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="54" t="s">
+      <c r="G16" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="54" t="s">
+      <c r="G17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K17" s="2"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K18" s="2"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="2"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2494,13 +2517,13 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="11"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2508,13 +2531,13 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="J23" s="69"/>
+      <c r="J23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2546,281 +2569,289 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
     <col min="6" max="6" width="35.54296875" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" style="9" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" customWidth="1"/>
     <col min="9" max="9" width="29.7265625" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
     <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="46" t="s">
+      <c r="F8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+    <row r="10" spans="1:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="B10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="11" spans="1:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="B11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+    <row r="12" spans="1:12" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>224</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
@@ -2850,281 +2881,289 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="32.6328125" style="17" customWidth="1"/>
     <col min="5" max="5" width="20.36328125" customWidth="1"/>
     <col min="6" max="6" width="32.1796875" customWidth="1"/>
     <col min="7" max="7" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.453125" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" customWidth="1"/>
     <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="B9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+    <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="B10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="B11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="68" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="B12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>216</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
@@ -3153,19 +3192,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90B686C-4160-4642-A446-C7FCF8A2560E}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="29" style="52" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="29" style="14" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.81640625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
@@ -3173,385 +3212,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>218</v>
+      <c r="G9" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+    <row r="10" spans="1:12" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>218</v>
+      <c r="G10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="11" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>218</v>
+      <c r="J11" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+    <row r="12" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>218</v>
+      <c r="G12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+    <row r="13" spans="1:12" ht="86" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="B13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>218</v>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+    <row r="14" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="68" t="s">
         <v>216</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+    <row r="15" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>218</v>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>216</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3559,13 +3598,13 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3573,13 +3612,13 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3587,13 +3626,13 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -3601,13 +3640,13 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3640,464 +3679,412 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="64"/>
-    <col min="2" max="2" width="14.453125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="18"/>
+    <col min="2" max="2" width="14.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" style="14" customWidth="1"/>
     <col min="5" max="5" width="27.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="59" t="s">
+      <c r="F8" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>219</v>
+      <c r="G9" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>218</v>
+      <c r="I9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="47" t="s">
+      <c r="G10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="7" t="s">
         <v>218</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="47" t="s">
+      <c r="G11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>218</v>
+      <c r="I11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="47" t="s">
+      <c r="G12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>218</v>
+      <c r="J12" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="47" t="s">
+      <c r="G13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>218</v>
+      <c r="J13" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="G14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>218</v>
+      <c r="I14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="47" t="s">
+      <c r="G15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>218</v>
+      <c r="J15" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A5:L5"/>
@@ -4117,312 +4104,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63B92F-0027-421A-ACDD-4E052246848B}">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="G1:J4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>